--- a/common.xlsx
+++ b/common.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\Example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE964EF-C623-4BE5-BB46-E02064542E36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" IT강남 강의시간표 (7)" sheetId="2" r:id="rId1"/>
@@ -226,9 +232,6 @@
     <t>배정:1(W:1,R:0)</t>
   </si>
   <si>
-    <t>웹개발5</t>
-  </si>
-  <si>
     <t>정원 : 29(0)</t>
   </si>
   <si>
@@ -326,12 +329,16 @@
   </si>
   <si>
     <t>배정:11(W:6,R:0)</t>
+  </si>
+  <si>
+    <t>웹개발1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1130,7 +1137,25 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,25 +1164,7 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1211,6 +1218,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1258,7 +1268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1291,9 +1301,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1326,6 +1353,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1501,18 +1545,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="12" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1522,27 +1568,27 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="19"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1578,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1616,12 +1662,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.65">
+      <c r="A4" s="17">
         <v>0.375</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1631,23 +1677,23 @@
       <c r="F4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1657,23 +1703,23 @@
       <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1683,23 +1729,23 @@
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1709,23 +1755,23 @@
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="22.7" x14ac:dyDescent="0.65">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1735,23 +1781,23 @@
       <c r="F8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1761,20 +1807,20 @@
       <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="22.7" x14ac:dyDescent="0.65">
       <c r="A10" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -1806,7 +1852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A11" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -1838,7 +1884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A12" s="4">
         <v>0.4375</v>
       </c>
@@ -1866,19 +1912,19 @@
       <c r="K12" s="2"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A13" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1891,20 +1937,20 @@
       <c r="J13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="10" t="s">
         <v>37</v>
       </c>
@@ -1915,18 +1961,18 @@
         <v>50</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="6"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="11" t="s">
         <v>59</v>
       </c>
@@ -1935,18 +1981,18 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="10" t="s">
         <v>60</v>
       </c>
@@ -1955,18 +2001,18 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="24"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="10" t="s">
         <v>61</v>
       </c>
@@ -1975,18 +2021,18 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="6"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1995,12 +2041,12 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A19" s="4">
         <v>0.47916666666666669</v>
       </c>
@@ -2020,7 +2066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A20" s="4">
         <v>0.5</v>
       </c>
@@ -2040,7 +2086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A21" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2056,7 +2102,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A22" s="4">
         <v>0.54166666666666663</v>
       </c>
@@ -2072,104 +2118,104 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A23" s="17">
         <v>0.5625</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="C23" s="20"/>
       <c r="D23" s="6"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="10"/>
       <c r="H23" s="14"/>
       <c r="I23" s="6"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A24" s="18"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="6"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="24"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="10"/>
       <c r="H24" s="14"/>
       <c r="I24" s="6"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A25" s="18"/>
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="24"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="10"/>
       <c r="H25" s="14"/>
       <c r="I25" s="6"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="24"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A26" s="18"/>
       <c r="B26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="C26" s="21"/>
       <c r="D26" s="6"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="24"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="10"/>
       <c r="H26" s="14"/>
       <c r="I26" s="6"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="24"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A27" s="19"/>
       <c r="B27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="C27" s="22"/>
       <c r="D27" s="6"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="10"/>
       <c r="H27" s="14"/>
       <c r="I27" s="6"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="25"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A28" s="4">
         <v>0.58333333333333337</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="6"/>
@@ -2184,7 +2230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A29" s="4">
         <v>0.60416666666666663</v>
       </c>
@@ -2204,7 +2250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A30" s="4">
         <v>0.625</v>
       </c>
@@ -2224,7 +2270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A31" s="4">
         <v>0.64583333333333337</v>
       </c>
@@ -2244,28 +2290,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A32" s="17">
         <v>0.66666666666666663</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="6"/>
       <c r="E32" s="10"/>
       <c r="F32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="14"/>
       <c r="I32" s="6"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A33" s="18"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="24"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="6"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
@@ -2275,13 +2321,13 @@
       <c r="H33" s="14"/>
       <c r="I33" s="6"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A34" s="18"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="6"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
@@ -2291,13 +2337,13 @@
       <c r="H34" s="14"/>
       <c r="I34" s="6"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="21"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A35" s="18"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="6"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
@@ -2307,26 +2353,26 @@
       <c r="H35" s="14"/>
       <c r="I35" s="6"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="24"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A36" s="19"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="25"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="6"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="14"/>
       <c r="I36" s="6"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="25"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="12"/>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A37" s="4">
         <v>0.6875</v>
       </c>
@@ -2335,7 +2381,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="14"/>
@@ -2344,7 +2390,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A38" s="4">
         <v>0.70833333333333337</v>
       </c>
@@ -2362,7 +2408,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2380,119 +2426,119 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A40" s="17">
         <v>0.75</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="26"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A41" s="18"/>
       <c r="B41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A42" s="18"/>
       <c r="B42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A43" s="18"/>
       <c r="B43" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="C43" s="21"/>
       <c r="D43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A44" s="18"/>
       <c r="B44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A45" s="19"/>
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="25"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2512,53 +2558,53 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A47" s="17">
         <v>0.79166666666666663</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="H47" s="20"/>
       <c r="I47" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L47" s="23"/>
-    </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A48" s="18"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="24"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="24"/>
+      <c r="H48" s="21"/>
       <c r="I48" s="10" t="s">
         <v>26</v>
       </c>
@@ -2568,23 +2614,23 @@
       <c r="K48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L48" s="24"/>
-    </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
+      <c r="L48" s="21"/>
+    </row>
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A49" s="18"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="24"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="24"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="10" t="s">
         <v>27</v>
       </c>
@@ -2594,23 +2640,23 @@
       <c r="K49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="24"/>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A50" s="18"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="24"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="24"/>
+      <c r="H50" s="21"/>
       <c r="I50" s="10" t="s">
         <v>28</v>
       </c>
@@ -2620,64 +2666,64 @@
       <c r="K50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L50" s="24"/>
-    </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A51" s="19"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="25"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="H51" s="22"/>
       <c r="I51" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L51" s="25"/>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4">
         <v>0.8125</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="2"/>
       <c r="F52" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K52" s="15" t="s">
         <v>65</v>
       </c>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
+    <row r="53" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A53" s="17">
         <v>0.83333333333333337</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -2687,31 +2733,31 @@
         <v>33</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="E53" s="20"/>
       <c r="F53" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="23"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A54" s="18"/>
       <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
@@ -2721,29 +2767,29 @@
       <c r="D54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="24"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="24"/>
+      <c r="H54" s="21"/>
       <c r="I54" s="10" t="s">
         <v>43</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
+    <row r="55" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A55" s="18"/>
       <c r="B55" s="10" t="s">
         <v>27</v>
       </c>
@@ -2753,40 +2799,40 @@
       <c r="D55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="24"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="24"/>
+      <c r="H55" s="21"/>
       <c r="I55" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
+    <row r="56" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A56" s="18"/>
       <c r="B56" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="24"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="14"/>
@@ -2794,28 +2840,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
+    <row r="57" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A57" s="18"/>
       <c r="B57" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="E57" s="21"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="24"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="14"/>
       <c r="L57" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
+      <c r="A58" s="19"/>
       <c r="B58" s="10" t="s">
         <v>33</v>
       </c>
@@ -2823,10 +2869,10 @@
       <c r="D58" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="25"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="25"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="14"/>
@@ -2834,7 +2880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A59" s="4">
         <v>0.85416666666666663</v>
       </c>
@@ -2856,7 +2902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A60" s="4">
         <v>0.875</v>
       </c>
@@ -2878,7 +2924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A61" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2894,7 +2940,7 @@
       <c r="K61" s="16"/>
       <c r="L61" s="12"/>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
       <c r="A62" s="4">
         <v>0.91666666666666663</v>
       </c>
@@ -2912,30 +2958,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="H53:H58"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="L40:L45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="K13:K18"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="F23:F27"/>
@@ -2949,8 +2971,33 @@
     <mergeCell ref="G4:G9"/>
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="K4:K9"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="H53:H58"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="L40:L45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="L47:L51"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/common.xlsx
+++ b/common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE964EF-C623-4BE5-BB46-E02064542E36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2141CE9B-65B1-4E6B-B41C-5A165CA181AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="103">
   <si>
     <t>강의실</t>
   </si>
@@ -329,10 +329,6 @@
   </si>
   <si>
     <t>배정:11(W:6,R:0)</t>
-  </si>
-  <si>
-    <t>웹개발1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1155,9 +1151,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,6 +1158,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1568,22 +1564,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +1920,7 @@
       <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="10" t="s">
         <v>58</v>
       </c>
@@ -2122,9 +2118,7 @@
       <c r="A23" s="17">
         <v>0.5625</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="20"/>
       <c r="D23" s="6"/>
       <c r="E23" s="10"/>
@@ -2437,14 +2431,14 @@
       <c r="D40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
     </row>
@@ -2958,6 +2952,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="L40:L45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="H53:H58"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="K32:K36"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="F23:F27"/>
@@ -2974,27 +2989,6 @@
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="H53:H58"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="L40:L45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="L47:L51"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/common.xlsx
+++ b/common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Storage\gitPractice\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2141CE9B-65B1-4E6B-B41C-5A165CA181AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091BCC5-097E-4954-936E-906788F2784D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
   <si>
     <t>강의실</t>
   </si>
@@ -329,6 +329,10 @@
   </si>
   <si>
     <t>배정:11(W:6,R:0)</t>
+  </si>
+  <si>
+    <t>관우진하</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1133,6 +1137,15 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1142,13 +1155,7 @@
     <xf numFmtId="20" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,9 +1165,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1564,22 +1568,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1659,11 +1663,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.65">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <v>0.375</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1673,23 +1677,23 @@
       <c r="F4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1699,23 +1703,23 @@
       <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1725,23 +1729,23 @@
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1751,23 +1755,23 @@
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="22.7" x14ac:dyDescent="0.65">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1777,23 +1781,23 @@
       <c r="F8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1803,15 +1807,15 @@
       <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1909,18 +1913,18 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A13" s="17">
+      <c r="A13" s="20">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1933,20 +1937,20 @@
       <c r="J13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="10" t="s">
         <v>37</v>
       </c>
@@ -1957,18 +1961,18 @@
         <v>50</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="6"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="11" t="s">
         <v>59</v>
       </c>
@@ -1977,18 +1981,18 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="10" t="s">
         <v>60</v>
       </c>
@@ -1997,18 +2001,18 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="10" t="s">
         <v>61</v>
       </c>
@@ -2017,18 +2021,18 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="6"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="10" t="s">
         <v>33</v>
       </c>
@@ -2037,7 +2041,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="10" t="s">
         <v>33</v>
       </c>
@@ -2115,91 +2119,93 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A23" s="17">
+      <c r="A23" s="20">
         <v>0.5625</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="17"/>
       <c r="D23" s="6"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="10"/>
       <c r="H23" s="14"/>
       <c r="I23" s="6"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A24" s="18"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="6"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="10"/>
       <c r="H24" s="14"/>
       <c r="I24" s="6"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="21"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A25" s="18"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="10"/>
       <c r="H25" s="14"/>
       <c r="I25" s="6"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A26" s="18"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="6"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="10"/>
       <c r="H26" s="14"/>
       <c r="I26" s="6"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="6"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="10"/>
       <c r="H27" s="14"/>
       <c r="I27" s="6"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="10" t="s">
         <v>71</v>
       </c>
@@ -2285,11 +2291,11 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A32" s="17">
+      <c r="A32" s="20">
         <v>0.66666666666666663</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="20"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="6"/>
       <c r="E32" s="10"/>
       <c r="F32" s="9" t="s">
@@ -2299,13 +2305,13 @@
       <c r="H32" s="14"/>
       <c r="I32" s="6"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="6"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
@@ -2315,13 +2321,13 @@
       <c r="H33" s="14"/>
       <c r="I33" s="6"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="21"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="6"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
@@ -2331,13 +2337,13 @@
       <c r="H34" s="14"/>
       <c r="I34" s="6"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="21"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="6"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
@@ -2347,13 +2353,13 @@
       <c r="H35" s="14"/>
       <c r="I35" s="6"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="21"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="6"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
@@ -2363,7 +2369,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="6"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
@@ -2421,116 +2427,116 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A40" s="17">
+      <c r="A40" s="20">
         <v>0.75</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="26"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="21"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="21"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="21"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="21"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A45" s="19"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4">
@@ -2553,7 +2559,7 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A47" s="17">
+      <c r="A47" s="20">
         <v>0.79166666666666663</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -2565,14 +2571,14 @@
       <c r="D47" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="9" t="s">
         <v>86</v>
       </c>
@@ -2582,23 +2588,23 @@
       <c r="K47" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="L47" s="20"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A48" s="18"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="21"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="10" t="s">
         <v>26</v>
       </c>
@@ -2608,23 +2614,23 @@
       <c r="K48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L48" s="21"/>
+      <c r="L48" s="18"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="21"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="10" t="s">
         <v>27</v>
       </c>
@@ -2634,23 +2640,23 @@
       <c r="K49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="21"/>
+      <c r="L49" s="18"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A50" s="18"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="21"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="10" t="s">
         <v>28</v>
       </c>
@@ -2660,23 +2666,23 @@
       <c r="K50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L50" s="21"/>
+      <c r="L50" s="18"/>
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="22"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="10" t="s">
         <v>71</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="22"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="10" t="s">
         <v>87</v>
       </c>
@@ -2686,7 +2692,7 @@
       <c r="K51" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="L51" s="22"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12" s="1" customFormat="1" ht="11.7" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4">
@@ -2717,7 +2723,7 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A53" s="17">
+      <c r="A53" s="20">
         <v>0.83333333333333337</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -2729,14 +2735,14 @@
       <c r="D53" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="20"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="20"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="10" t="s">
         <v>89</v>
       </c>
@@ -2751,7 +2757,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A54" s="18"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
@@ -2761,14 +2767,14 @@
       <c r="D54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="21"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="21"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="10" t="s">
         <v>43</v>
       </c>
@@ -2783,7 +2789,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A55" s="18"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="10" t="s">
         <v>27</v>
       </c>
@@ -2793,14 +2799,14 @@
       <c r="D55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="21"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="21"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="10" t="s">
         <v>90</v>
       </c>
@@ -2815,7 +2821,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A56" s="18"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="10" t="s">
         <v>70</v>
       </c>
@@ -2823,10 +2829,10 @@
       <c r="D56" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="21"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="14"/>
@@ -2835,7 +2841,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A57" s="18"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="11" t="s">
         <v>83</v>
       </c>
@@ -2843,10 +2849,10 @@
       <c r="D57" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="21"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="21"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="14"/>
@@ -2855,7 +2861,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="11.35" x14ac:dyDescent="0.65">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="10" t="s">
         <v>33</v>
       </c>
@@ -2863,10 +2869,10 @@
       <c r="D58" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="22"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="14"/>
@@ -2952,22 +2958,15 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="L40:L45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="H53:H58"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="K4:K9"/>
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="K13:K18"/>
     <mergeCell ref="A32:A36"/>
@@ -2977,18 +2976,25 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="K23:K27"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="K4:K9"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C18"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="H53:H58"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="K40:K45"/>
+    <mergeCell ref="L40:L45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="J40:J45"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
